--- a/直播源汇总文档/其他文档/肥羊百视通.xlsx
+++ b/直播源汇总文档/其他文档/肥羊百视通.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$E$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$F$108</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$F$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$F$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$E$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">娱乐!$A$1:$E$91</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="218">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -696,6 +696,14 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海峡卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/hxwshd4m@4000000.m3u8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3530,7 +3538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4724,10 +4732,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -4736,15 +4744,15 @@
         <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -4753,15 +4761,15 @@
         <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -4770,15 +4778,15 @@
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
@@ -4787,15 +4795,15 @@
         <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
@@ -4804,15 +4812,15 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -4821,12 +4829,12 @@
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
@@ -4838,12 +4846,12 @@
         <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>67</v>
@@ -4855,12 +4863,12 @@
         <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
@@ -4872,12 +4880,12 @@
         <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
@@ -4889,12 +4897,12 @@
         <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>67</v>
@@ -4906,12 +4914,12 @@
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
         <v>67</v>
@@ -4923,12 +4931,12 @@
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
         <v>67</v>
@@ -4940,12 +4948,12 @@
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
         <v>67</v>
@@ -4957,12 +4965,12 @@
         <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
         <v>67</v>
@@ -4974,12 +4982,12 @@
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
         <v>67</v>
@@ -4991,12 +4999,12 @@
         <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
         <v>67</v>
@@ -5008,12 +5016,12 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
         <v>67</v>
@@ -5025,12 +5033,12 @@
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
         <v>67</v>
@@ -5042,12 +5050,12 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
         <v>67</v>
@@ -5059,12 +5067,12 @@
         <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
         <v>67</v>
@@ -5076,12 +5084,12 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
         <v>67</v>
@@ -5093,12 +5101,12 @@
         <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
@@ -5110,12 +5118,12 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -5127,12 +5135,12 @@
         <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
         <v>67</v>
@@ -5144,12 +5152,12 @@
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
@@ -5161,12 +5169,12 @@
         <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
@@ -5178,12 +5186,12 @@
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
         <v>67</v>
@@ -5195,12 +5203,12 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
         <v>67</v>
@@ -5212,12 +5220,12 @@
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B97" t="s">
         <v>67</v>
@@ -5229,12 +5237,12 @@
         <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
         <v>67</v>
@@ -5246,12 +5254,12 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
         <v>67</v>
@@ -5263,12 +5271,12 @@
         <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
         <v>67</v>
@@ -5280,12 +5288,12 @@
         <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
         <v>67</v>
@@ -5297,12 +5305,12 @@
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
         <v>67</v>
@@ -5314,12 +5322,12 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
         <v>67</v>
@@ -5331,12 +5339,12 @@
         <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
         <v>67</v>
@@ -5348,12 +5356,12 @@
         <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
         <v>67</v>
@@ -5365,12 +5373,12 @@
         <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
         <v>67</v>
@@ -5382,12 +5390,12 @@
         <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
         <v>67</v>
@@ -5399,12 +5407,12 @@
         <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
         <v>67</v>
@@ -5416,12 +5424,12 @@
         <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
         <v>67</v>
@@ -5433,12 +5441,12 @@
         <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
         <v>67</v>
@@ -5450,12 +5458,12 @@
         <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
         <v>67</v>
@@ -5467,12 +5475,12 @@
         <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
         <v>67</v>
@@ -5484,12 +5492,12 @@
         <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
         <v>67</v>
@@ -5501,12 +5509,12 @@
         <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B114" t="s">
         <v>67</v>
@@ -5518,12 +5526,12 @@
         <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
         <v>67</v>
@@ -5535,12 +5543,12 @@
         <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
         <v>67</v>
@@ -5552,12 +5560,12 @@
         <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
         <v>67</v>
@@ -5569,12 +5577,12 @@
         <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s">
         <v>67</v>
@@ -5586,12 +5594,12 @@
         <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
         <v>67</v>
@@ -5603,12 +5611,12 @@
         <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
         <v>67</v>
@@ -5620,12 +5628,12 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
         <v>67</v>
@@ -5637,12 +5645,12 @@
         <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
         <v>67</v>
@@ -5654,15 +5662,12 @@
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>195</v>
-      </c>
-      <c r="F122" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
         <v>67</v>
@@ -5674,15 +5679,12 @@
         <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>195</v>
-      </c>
-      <c r="F123" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -5694,15 +5696,12 @@
         <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
-      </c>
-      <c r="F124" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
         <v>67</v>
@@ -5714,15 +5713,12 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>195</v>
-      </c>
-      <c r="F125" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
         <v>67</v>
@@ -5734,15 +5730,12 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>195</v>
-      </c>
-      <c r="F126" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B127" t="s">
         <v>67</v>
@@ -5754,15 +5747,12 @@
         <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>195</v>
-      </c>
-      <c r="F127" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
         <v>67</v>
@@ -5774,7 +5764,7 @@
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F128" t="s">
         <v>111</v>
@@ -5782,7 +5772,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
         <v>67</v>
@@ -5794,7 +5784,7 @@
         <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F129" t="s">
         <v>111</v>
@@ -5802,7 +5792,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
         <v>67</v>
@@ -5814,7 +5804,7 @@
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F130" t="s">
         <v>111</v>
@@ -5822,7 +5812,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
         <v>67</v>
@@ -5834,7 +5824,7 @@
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F131" t="s">
         <v>111</v>
@@ -5842,7 +5832,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s">
         <v>67</v>
@@ -5854,7 +5844,7 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F132" t="s">
         <v>111</v>
@@ -5862,7 +5852,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s">
         <v>67</v>
@@ -5874,7 +5864,7 @@
         <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F133" t="s">
         <v>111</v>
@@ -5882,7 +5872,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" t="s">
         <v>67</v>
@@ -5894,7 +5884,7 @@
         <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F134" t="s">
         <v>111</v>
@@ -5902,7 +5892,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B135" t="s">
         <v>67</v>
@@ -5914,7 +5904,7 @@
         <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F135" t="s">
         <v>111</v>
@@ -5922,7 +5912,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B136" t="s">
         <v>67</v>
@@ -5934,7 +5924,7 @@
         <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F136" t="s">
         <v>111</v>
@@ -5942,7 +5932,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B137" t="s">
         <v>67</v>
@@ -5954,7 +5944,7 @@
         <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F137" t="s">
         <v>111</v>
@@ -5962,7 +5952,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B138" t="s">
         <v>67</v>
@@ -5974,7 +5964,7 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F138" t="s">
         <v>111</v>
@@ -5982,7 +5972,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B139" t="s">
         <v>67</v>
@@ -5994,7 +5984,7 @@
         <v>28</v>
       </c>
       <c r="E139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F139" t="s">
         <v>111</v>
@@ -6002,7 +5992,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
         <v>67</v>
@@ -6014,7 +6004,7 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F140" t="s">
         <v>111</v>
@@ -6022,7 +6012,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s">
         <v>67</v>
@@ -6034,7 +6024,7 @@
         <v>31</v>
       </c>
       <c r="E141" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F141" t="s">
         <v>111</v>
@@ -6042,7 +6032,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B142" t="s">
         <v>67</v>
@@ -6054,7 +6044,7 @@
         <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F142" t="s">
         <v>111</v>
@@ -6062,7 +6052,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B143" t="s">
         <v>67</v>
@@ -6074,7 +6064,7 @@
         <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F143" t="s">
         <v>111</v>
@@ -6082,7 +6072,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
         <v>67</v>
@@ -6094,7 +6084,7 @@
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F144" t="s">
         <v>111</v>
@@ -6102,7 +6092,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B145" t="s">
         <v>67</v>
@@ -6114,7 +6104,7 @@
         <v>28</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F145" t="s">
         <v>111</v>
@@ -6122,10 +6112,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
@@ -6134,7 +6124,7 @@
         <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F146" t="s">
         <v>111</v>
@@ -6142,10 +6132,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
@@ -6154,7 +6144,7 @@
         <v>31</v>
       </c>
       <c r="E147" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F147" t="s">
         <v>111</v>
@@ -6162,10 +6152,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
@@ -6174,7 +6164,7 @@
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F148" t="s">
         <v>111</v>
@@ -6182,10 +6172,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
@@ -6194,7 +6184,7 @@
         <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F149" t="s">
         <v>111</v>
@@ -6202,10 +6192,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
@@ -6214,7 +6204,7 @@
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F150" t="s">
         <v>111</v>
@@ -6222,10 +6212,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
@@ -6234,7 +6224,7 @@
         <v>28</v>
       </c>
       <c r="E151" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F151" t="s">
         <v>111</v>
@@ -6254,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F152" t="s">
         <v>111</v>
@@ -6274,7 +6264,7 @@
         <v>31</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F153" t="s">
         <v>111</v>
@@ -6294,7 +6284,7 @@
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F154" t="s">
         <v>111</v>
@@ -6314,7 +6304,7 @@
         <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F155" t="s">
         <v>111</v>
@@ -6334,7 +6324,7 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F156" t="s">
         <v>111</v>
@@ -6354,7 +6344,7 @@
         <v>28</v>
       </c>
       <c r="E157" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F157" t="s">
         <v>111</v>
@@ -6362,10 +6352,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
         <v>19</v>
@@ -6374,15 +6364,18 @@
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="F158" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
@@ -6391,15 +6384,18 @@
         <v>31</v>
       </c>
       <c r="E159" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="F159" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
         <v>19</v>
@@ -6408,15 +6404,18 @@
         <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="F160" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
         <v>19</v>
@@ -6425,15 +6424,18 @@
         <v>30</v>
       </c>
       <c r="E161" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="F161" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C162" t="s">
         <v>19</v>
@@ -6442,15 +6444,18 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="F162" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C163" t="s">
         <v>19</v>
@@ -6459,12 +6464,15 @@
         <v>28</v>
       </c>
       <c r="E163" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="F163" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B164" t="s">
         <v>67</v>
@@ -6476,15 +6484,12 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>198</v>
-      </c>
-      <c r="F164" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B165" t="s">
         <v>67</v>
@@ -6496,15 +6501,12 @@
         <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>198</v>
-      </c>
-      <c r="F165" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B166" t="s">
         <v>67</v>
@@ -6516,15 +6518,12 @@
         <v>29</v>
       </c>
       <c r="E166" t="s">
-        <v>198</v>
-      </c>
-      <c r="F166" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B167" t="s">
         <v>67</v>
@@ -6536,15 +6535,12 @@
         <v>30</v>
       </c>
       <c r="E167" t="s">
-        <v>198</v>
-      </c>
-      <c r="F167" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B168" t="s">
         <v>67</v>
@@ -6556,15 +6552,12 @@
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>198</v>
-      </c>
-      <c r="F168" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B169" t="s">
         <v>67</v>
@@ -6576,15 +6569,12 @@
         <v>28</v>
       </c>
       <c r="E169" t="s">
-        <v>198</v>
-      </c>
-      <c r="F169" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
         <v>67</v>
@@ -6596,7 +6586,7 @@
         <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F170" t="s">
         <v>111</v>
@@ -6604,7 +6594,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s">
         <v>67</v>
@@ -6616,7 +6606,7 @@
         <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F171" t="s">
         <v>111</v>
@@ -6624,7 +6614,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B172" t="s">
         <v>67</v>
@@ -6636,7 +6626,7 @@
         <v>29</v>
       </c>
       <c r="E172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F172" t="s">
         <v>111</v>
@@ -6644,7 +6634,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B173" t="s">
         <v>67</v>
@@ -6656,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="E173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F173" t="s">
         <v>111</v>
@@ -6664,7 +6654,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B174" t="s">
         <v>67</v>
@@ -6676,7 +6666,7 @@
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F174" t="s">
         <v>111</v>
@@ -6684,7 +6674,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
         <v>67</v>
@@ -6696,7 +6686,7 @@
         <v>28</v>
       </c>
       <c r="E175" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F175" t="s">
         <v>111</v>
@@ -6704,7 +6694,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
         <v>67</v>
@@ -6716,12 +6706,15 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="F176" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B177" t="s">
         <v>67</v>
@@ -6733,12 +6726,15 @@
         <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="F177" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B178" t="s">
         <v>67</v>
@@ -6750,12 +6746,15 @@
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="F178" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B179" t="s">
         <v>67</v>
@@ -6767,12 +6766,15 @@
         <v>30</v>
       </c>
       <c r="E179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="F179" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
         <v>67</v>
@@ -6784,12 +6786,15 @@
         <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="F180" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B181" t="s">
         <v>67</v>
@@ -6801,12 +6806,15 @@
         <v>28</v>
       </c>
       <c r="E181" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="F181" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B182" t="s">
         <v>67</v>
@@ -6818,12 +6826,12 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B183" t="s">
         <v>67</v>
@@ -6835,12 +6843,12 @@
         <v>31</v>
       </c>
       <c r="E183" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B184" t="s">
         <v>67</v>
@@ -6852,12 +6860,12 @@
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s">
         <v>67</v>
@@ -6869,12 +6877,12 @@
         <v>30</v>
       </c>
       <c r="E185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s">
         <v>67</v>
@@ -6886,12 +6894,12 @@
         <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B187" t="s">
         <v>67</v>
@@ -6903,12 +6911,12 @@
         <v>28</v>
       </c>
       <c r="E187" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B188" t="s">
         <v>67</v>
@@ -6920,12 +6928,12 @@
         <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B189" t="s">
         <v>67</v>
@@ -6937,12 +6945,12 @@
         <v>31</v>
       </c>
       <c r="E189" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B190" t="s">
         <v>67</v>
@@ -6954,12 +6962,12 @@
         <v>29</v>
       </c>
       <c r="E190" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B191" t="s">
         <v>67</v>
@@ -6971,12 +6979,12 @@
         <v>30</v>
       </c>
       <c r="E191" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B192" t="s">
         <v>67</v>
@@ -6988,12 +6996,12 @@
         <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s">
         <v>67</v>
@@ -7005,12 +7013,12 @@
         <v>28</v>
       </c>
       <c r="E193" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B194" t="s">
         <v>67</v>
@@ -7022,15 +7030,12 @@
         <v>20</v>
       </c>
       <c r="E194" t="s">
-        <v>210</v>
-      </c>
-      <c r="F194" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B195" t="s">
         <v>67</v>
@@ -7042,15 +7047,12 @@
         <v>31</v>
       </c>
       <c r="E195" t="s">
-        <v>210</v>
-      </c>
-      <c r="F195" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B196" t="s">
         <v>67</v>
@@ -7062,15 +7064,12 @@
         <v>29</v>
       </c>
       <c r="E196" t="s">
-        <v>210</v>
-      </c>
-      <c r="F196" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B197" t="s">
         <v>67</v>
@@ -7082,15 +7081,12 @@
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>210</v>
-      </c>
-      <c r="F197" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B198" t="s">
         <v>67</v>
@@ -7102,15 +7098,12 @@
         <v>27</v>
       </c>
       <c r="E198" t="s">
-        <v>210</v>
-      </c>
-      <c r="F198" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B199" t="s">
         <v>67</v>
@@ -7122,15 +7115,12 @@
         <v>28</v>
       </c>
       <c r="E199" t="s">
-        <v>210</v>
-      </c>
-      <c r="F199" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s">
         <v>67</v>
@@ -7142,7 +7132,7 @@
         <v>20</v>
       </c>
       <c r="E200" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F200" t="s">
         <v>111</v>
@@ -7150,7 +7140,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B201" t="s">
         <v>67</v>
@@ -7162,7 +7152,7 @@
         <v>31</v>
       </c>
       <c r="E201" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F201" t="s">
         <v>111</v>
@@ -7170,7 +7160,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s">
         <v>67</v>
@@ -7182,7 +7172,7 @@
         <v>29</v>
       </c>
       <c r="E202" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F202" t="s">
         <v>111</v>
@@ -7190,7 +7180,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B203" t="s">
         <v>67</v>
@@ -7202,7 +7192,7 @@
         <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F203" t="s">
         <v>111</v>
@@ -7210,7 +7200,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
         <v>67</v>
@@ -7222,7 +7212,7 @@
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F204" t="s">
         <v>111</v>
@@ -7230,7 +7220,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
         <v>67</v>
@@ -7242,7 +7232,7 @@
         <v>28</v>
       </c>
       <c r="E205" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F205" t="s">
         <v>111</v>
@@ -7250,7 +7240,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
         <v>67</v>
@@ -7262,12 +7252,15 @@
         <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F206" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
         <v>67</v>
@@ -7279,12 +7272,15 @@
         <v>31</v>
       </c>
       <c r="E207" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F207" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
         <v>67</v>
@@ -7296,12 +7292,15 @@
         <v>29</v>
       </c>
       <c r="E208" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="F208" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B209" t="s">
         <v>67</v>
@@ -7313,12 +7312,15 @@
         <v>30</v>
       </c>
       <c r="E209" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="F209" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B210" t="s">
         <v>67</v>
@@ -7330,12 +7332,15 @@
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="F210" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B211" t="s">
         <v>67</v>
@@ -7347,12 +7352,15 @@
         <v>28</v>
       </c>
       <c r="E211" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="F211" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B212" t="s">
         <v>67</v>
@@ -7364,12 +7372,12 @@
         <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B213" t="s">
         <v>67</v>
@@ -7381,12 +7389,12 @@
         <v>31</v>
       </c>
       <c r="E213" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B214" t="s">
         <v>67</v>
@@ -7398,12 +7406,12 @@
         <v>29</v>
       </c>
       <c r="E214" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B215" t="s">
         <v>67</v>
@@ -7415,12 +7423,12 @@
         <v>30</v>
       </c>
       <c r="E215" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B216" t="s">
         <v>67</v>
@@ -7432,12 +7440,12 @@
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B217" t="s">
         <v>67</v>
@@ -7449,11 +7457,113 @@
         <v>28</v>
       </c>
       <c r="E217" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>33</v>
+      </c>
+      <c r="B218" t="s">
+        <v>67</v>
+      </c>
+      <c r="C218" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" t="s">
         <v>157</v>
       </c>
     </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>33</v>
+      </c>
+      <c r="B219" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>33</v>
+      </c>
+      <c r="B220" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>33</v>
+      </c>
+      <c r="B221" t="s">
+        <v>67</v>
+      </c>
+      <c r="C221" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" t="s">
+        <v>30</v>
+      </c>
+      <c r="E221" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>33</v>
+      </c>
+      <c r="B222" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>33</v>
+      </c>
+      <c r="B223" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F217"/>
+  <autoFilter ref="A1:F223"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/直播源汇总文档/其他文档/肥羊百视通.xlsx
+++ b/直播源汇总文档/其他文档/肥羊百视通.xlsx
@@ -14,10 +14,10 @@
     <sheet name="娱乐" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$E$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$F$108</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$F$223</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$F$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$F$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$F$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$F$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">娱乐!$A$1:$E$91</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="248">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -704,6 +704,111 @@
   </si>
   <si>
     <t>/bst/hxwshd4m@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CETV-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CETV-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/cetv2@2500000.m3u8</t>
+  </si>
+  <si>
+    <t>/bst/zgjy4hd4m@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/fjzhhd4m@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏藏语卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/xzwszy@2500000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建公共</t>
+  </si>
+  <si>
+    <t>/bst/fjgghd4m@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建新闻</t>
+  </si>
+  <si>
+    <t>/bst/fjxwhd4m@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建电视剧</t>
+  </si>
+  <si>
+    <t>/bst/fjdsjhd4m@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建旅游</t>
+  </si>
+  <si>
+    <t>/bst/fjlyhd4m@4000000.m3u8</t>
+  </si>
+  <si>
+    <t>福建经济</t>
+  </si>
+  <si>
+    <t>/bst/fjjjshhd4m@4000000.m3u8</t>
+  </si>
+  <si>
+    <t>福建文体</t>
+  </si>
+  <si>
+    <t>/bst/fjtyhd4m@4000000.m3u8</t>
+  </si>
+  <si>
+    <t>福建少儿</t>
+  </si>
+  <si>
+    <t>/bst/fjsehd4m@4000000.m3u8</t>
+  </si>
+  <si>
+    <t>福建教育</t>
+  </si>
+  <si>
+    <t>/bst/fjjypdhd4m@4000000.m3u8</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/dfgwsxhd8m@8000000.m3u8</t>
+  </si>
+  <si>
+    <t>东方购物三台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1061,9 +1166,10 @@
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1079,8 +1185,11 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1206,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1257,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1308,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1376,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1393,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1410,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1427,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3511,7 +3620,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3528,8 +3637,230 @@
         <v>205</v>
       </c>
     </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" t="s">
+        <v>220</v>
+      </c>
+      <c r="F146" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>220</v>
+      </c>
+      <c r="F147" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" t="s">
+        <v>220</v>
+      </c>
+      <c r="F148" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>218</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>220</v>
+      </c>
+      <c r="F149" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="s">
+        <v>220</v>
+      </c>
+      <c r="F150" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>218</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" t="s">
+        <v>220</v>
+      </c>
+      <c r="F151" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>219</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>219</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>219</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E145"/>
+  <autoFilter ref="A1:F157"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3538,13 +3869,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
@@ -7120,10 +7451,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="B200" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C200" t="s">
         <v>19</v>
@@ -7132,7 +7463,7 @@
         <v>20</v>
       </c>
       <c r="E200" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F200" t="s">
         <v>111</v>
@@ -7140,10 +7471,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
@@ -7152,7 +7483,7 @@
         <v>31</v>
       </c>
       <c r="E201" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F201" t="s">
         <v>111</v>
@@ -7160,10 +7491,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="B202" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C202" t="s">
         <v>19</v>
@@ -7172,7 +7503,7 @@
         <v>29</v>
       </c>
       <c r="E202" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F202" t="s">
         <v>111</v>
@@ -7180,10 +7511,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="B203" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C203" t="s">
         <v>19</v>
@@ -7192,7 +7523,7 @@
         <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F203" t="s">
         <v>111</v>
@@ -7200,10 +7531,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="B204" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C204" t="s">
         <v>19</v>
@@ -7212,7 +7543,7 @@
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F204" t="s">
         <v>111</v>
@@ -7220,10 +7551,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="B205" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C205" t="s">
         <v>19</v>
@@ -7232,7 +7563,7 @@
         <v>28</v>
       </c>
       <c r="E205" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F205" t="s">
         <v>111</v>
@@ -7240,7 +7571,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="B206" t="s">
         <v>67</v>
@@ -7252,7 +7583,7 @@
         <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F206" t="s">
         <v>111</v>
@@ -7260,7 +7591,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
         <v>67</v>
@@ -7272,7 +7603,7 @@
         <v>31</v>
       </c>
       <c r="E207" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F207" t="s">
         <v>111</v>
@@ -7280,7 +7611,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
         <v>67</v>
@@ -7292,7 +7623,7 @@
         <v>29</v>
       </c>
       <c r="E208" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F208" t="s">
         <v>111</v>
@@ -7300,7 +7631,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s">
         <v>67</v>
@@ -7312,7 +7643,7 @@
         <v>30</v>
       </c>
       <c r="E209" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F209" t="s">
         <v>111</v>
@@ -7320,7 +7651,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
         <v>67</v>
@@ -7332,7 +7663,7 @@
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F210" t="s">
         <v>111</v>
@@ -7340,7 +7671,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s">
         <v>67</v>
@@ -7352,7 +7683,7 @@
         <v>28</v>
       </c>
       <c r="E211" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F211" t="s">
         <v>111</v>
@@ -7360,7 +7691,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B212" t="s">
         <v>67</v>
@@ -7372,12 +7703,15 @@
         <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F212" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B213" t="s">
         <v>67</v>
@@ -7389,12 +7723,15 @@
         <v>31</v>
       </c>
       <c r="E213" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F213" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B214" t="s">
         <v>67</v>
@@ -7406,12 +7743,15 @@
         <v>29</v>
       </c>
       <c r="E214" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F214" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B215" t="s">
         <v>67</v>
@@ -7423,12 +7763,15 @@
         <v>30</v>
       </c>
       <c r="E215" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F215" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B216" t="s">
         <v>67</v>
@@ -7440,12 +7783,15 @@
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F216" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s">
         <v>67</v>
@@ -7457,12 +7803,15 @@
         <v>28</v>
       </c>
       <c r="E217" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="F217" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B218" t="s">
         <v>67</v>
@@ -7474,12 +7823,12 @@
         <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B219" t="s">
         <v>67</v>
@@ -7491,12 +7840,12 @@
         <v>31</v>
       </c>
       <c r="E219" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B220" t="s">
         <v>67</v>
@@ -7508,12 +7857,12 @@
         <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B221" t="s">
         <v>67</v>
@@ -7525,12 +7874,12 @@
         <v>30</v>
       </c>
       <c r="E221" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B222" t="s">
         <v>67</v>
@@ -7542,12 +7891,12 @@
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B223" t="s">
         <v>67</v>
@@ -7559,11 +7908,113 @@
         <v>28</v>
       </c>
       <c r="E223" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>33</v>
+      </c>
+      <c r="B224" t="s">
+        <v>67</v>
+      </c>
+      <c r="C224" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
         <v>157</v>
       </c>
     </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>33</v>
+      </c>
+      <c r="B225" t="s">
+        <v>67</v>
+      </c>
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>33</v>
+      </c>
+      <c r="B226" t="s">
+        <v>67</v>
+      </c>
+      <c r="C226" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>33</v>
+      </c>
+      <c r="B227" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" t="s">
+        <v>30</v>
+      </c>
+      <c r="E227" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>33</v>
+      </c>
+      <c r="B228" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>33</v>
+      </c>
+      <c r="B229" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F223"/>
+  <autoFilter ref="A1:F229"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7571,7 +8022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8015,10 +8466,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -8027,15 +8478,15 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -8044,15 +8495,15 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -8061,15 +8512,15 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -8078,15 +8529,15 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -8095,15 +8546,15 @@
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -8112,15 +8563,15 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -8129,15 +8580,15 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
@@ -8146,15 +8597,15 @@
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -8163,15 +8614,15 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
@@ -8180,32 +8631,32 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -8214,12 +8665,12 @@
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -8231,12 +8682,12 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -8248,12 +8699,12 @@
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -8265,12 +8716,12 @@
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -8282,12 +8733,12 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -8299,12 +8750,12 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -8316,15 +8767,15 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -8333,15 +8784,15 @@
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -8350,15 +8801,15 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -8367,15 +8818,15 @@
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
@@ -8384,32 +8835,32 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -8418,10 +8869,7 @@
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -8429,19 +8877,16 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -8449,19 +8894,16 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -8469,19 +8911,16 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -8489,19 +8928,16 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -8509,41 +8945,41 @@
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F55" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
@@ -8555,12 +8991,15 @@
         <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
@@ -8572,12 +9011,15 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F57" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
@@ -8589,12 +9031,15 @@
         <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
@@ -8606,12 +9051,15 @@
         <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
@@ -8623,12 +9071,15 @@
         <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
         <v>67</v>
@@ -8640,12 +9091,12 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -8657,12 +9108,12 @@
         <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
@@ -8674,12 +9125,12 @@
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -8691,12 +9142,12 @@
         <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -8708,12 +9159,12 @@
         <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -8725,12 +9176,12 @@
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -8742,12 +9193,12 @@
         <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -8759,12 +9210,12 @@
         <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -8776,12 +9227,12 @@
         <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
@@ -8793,12 +9244,12 @@
         <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
@@ -8810,12 +9261,12 @@
         <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>67</v>
@@ -8827,15 +9278,15 @@
         <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -8844,15 +9295,15 @@
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -8861,15 +9312,15 @@
         <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -8878,15 +9329,15 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -8895,32 +9346,32 @@
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
@@ -8929,15 +9380,15 @@
         <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -8946,15 +9397,15 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -8963,15 +9414,15 @@
         <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -8980,15 +9431,15 @@
         <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
@@ -8997,32 +9448,32 @@
         <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -9031,12 +9482,12 @@
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
         <v>67</v>
@@ -9048,12 +9499,12 @@
         <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
         <v>67</v>
@@ -9065,12 +9516,12 @@
         <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
         <v>67</v>
@@ -9082,12 +9533,12 @@
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
         <v>67</v>
@@ -9099,12 +9550,12 @@
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
         <v>67</v>
@@ -9116,12 +9567,12 @@
         <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
@@ -9133,12 +9584,12 @@
         <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -9150,12 +9601,12 @@
         <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
         <v>67</v>
@@ -9167,12 +9618,12 @@
         <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
@@ -9184,12 +9635,12 @@
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
@@ -9201,12 +9652,12 @@
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
         <v>67</v>
@@ -9218,12 +9669,12 @@
         <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
         <v>67</v>
@@ -9235,12 +9686,12 @@
         <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
         <v>67</v>
@@ -9252,12 +9703,12 @@
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
         <v>67</v>
@@ -9269,12 +9720,12 @@
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
         <v>67</v>
@@ -9286,12 +9737,12 @@
         <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
         <v>67</v>
@@ -9303,12 +9754,12 @@
         <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
         <v>67</v>
@@ -9320,12 +9771,12 @@
         <v>80</v>
       </c>
       <c r="E101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
         <v>67</v>
@@ -9337,12 +9788,12 @@
         <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
         <v>67</v>
@@ -9354,12 +9805,12 @@
         <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
         <v>67</v>
@@ -9371,12 +9822,12 @@
         <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B105" t="s">
         <v>67</v>
@@ -9388,12 +9839,12 @@
         <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
         <v>67</v>
@@ -9405,12 +9856,12 @@
         <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
         <v>67</v>
@@ -9422,12 +9873,12 @@
         <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
         <v>67</v>
@@ -9439,11 +9890,113 @@
         <v>28</v>
       </c>
       <c r="E108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" t="s">
         <v>173</v>
       </c>
     </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F108"/>
+  <autoFilter ref="A1:F114"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9451,7 +10004,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9462,9 +10015,10 @@
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -9480,8 +10034,11 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -9497,8 +10054,11 @@
       <c r="E2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -9514,8 +10074,11 @@
       <c r="E3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -9531,8 +10094,11 @@
       <c r="E4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -9548,8 +10114,11 @@
       <c r="E5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -9565,8 +10134,11 @@
       <c r="E6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -9582,8 +10154,11 @@
       <c r="E7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -9599,8 +10174,11 @@
       <c r="E8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -9616,8 +10194,11 @@
       <c r="E9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -9633,8 +10214,11 @@
       <c r="E10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -9650,8 +10234,11 @@
       <c r="E11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -9667,8 +10254,11 @@
       <c r="E12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -9684,8 +10274,11 @@
       <c r="E13" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -9702,7 +10295,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -9719,7 +10312,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -9736,7 +10329,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -9753,7 +10346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -9770,7 +10363,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -9787,7 +10380,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -9803,8 +10396,11 @@
       <c r="E20" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -9820,8 +10416,11 @@
       <c r="E21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -9837,8 +10436,11 @@
       <c r="E22" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -9854,8 +10456,11 @@
       <c r="E23" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -9871,8 +10476,11 @@
       <c r="E24" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -9888,8 +10496,11 @@
       <c r="E25" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -9906,7 +10517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -9923,7 +10534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -9940,7 +10551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -9957,7 +10568,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -9974,7 +10585,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -9991,7 +10602,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -10008,7 +10619,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -10025,7 +10636,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -10042,7 +10653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -10059,7 +10670,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -10076,7 +10687,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -10093,7 +10704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -10109,8 +10720,11 @@
       <c r="E38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -10126,8 +10740,11 @@
       <c r="E39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -10143,8 +10760,11 @@
       <c r="E40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -10160,8 +10780,11 @@
       <c r="E41" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -10177,8 +10800,11 @@
       <c r="E42" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -10194,8 +10820,11 @@
       <c r="E43" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -10211,8 +10840,11 @@
       <c r="E44" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -10228,8 +10860,11 @@
       <c r="E45" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -10245,8 +10880,11 @@
       <c r="E46" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -10262,8 +10900,11 @@
       <c r="E47" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -10279,8 +10920,11 @@
       <c r="E48" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -10296,9 +10940,930 @@
       <c r="E49" t="s">
         <v>213</v>
       </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>239</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E49"/>
+  <autoFilter ref="A1:F103"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/直播源汇总文档/其他文档/肥羊百视通.xlsx
+++ b/直播源汇总文档/其他文档/肥羊百视通.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$F$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$F$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$F$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$F$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$F$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">娱乐!$A$1:$E$91</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="254">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -809,6 +809,30 @@
   </si>
   <si>
     <t>东方购物三台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海都市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/ylpdhd@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方影视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/dsjpdhd@4000000.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/ssty@4000000.m3u8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8022,7 +8046,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8032,7 +8056,7 @@
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8262,7 +8286,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -8274,12 +8298,12 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -8291,12 +8315,12 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -8308,12 +8332,12 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -8325,12 +8349,12 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -8342,12 +8366,12 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -8359,15 +8383,15 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -8376,15 +8400,15 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -8393,15 +8417,15 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -8410,15 +8434,15 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -8427,32 +8451,32 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -8461,15 +8485,15 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -8478,15 +8502,15 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -8495,15 +8519,15 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -8512,15 +8536,15 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -8529,15 +8553,15 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -8546,15 +8570,15 @@
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -8563,12 +8587,12 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -8580,12 +8604,12 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -8597,12 +8621,12 @@
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -8614,12 +8638,12 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -8631,12 +8655,12 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -8648,12 +8672,12 @@
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -8665,12 +8689,12 @@
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -8682,12 +8706,12 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -8699,12 +8723,12 @@
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -8716,12 +8740,12 @@
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -8733,12 +8757,12 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -8750,12 +8774,12 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -8767,12 +8791,12 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -8784,12 +8808,12 @@
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -8801,12 +8825,12 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -8818,12 +8842,12 @@
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -8835,12 +8859,12 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -8849,15 +8873,15 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -8869,12 +8893,12 @@
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -8886,12 +8910,12 @@
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -8903,12 +8927,12 @@
         <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -8920,12 +8944,12 @@
         <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -8937,12 +8961,12 @@
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -8954,12 +8978,12 @@
         <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -8971,336 +8995,336 @@
         <v>28</v>
       </c>
       <c r="E55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
         <v>211</v>
       </c>
-      <c r="F55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" t="s">
-        <v>211</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" t="s">
-        <v>211</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" t="s">
-        <v>211</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" t="s">
-        <v>211</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" t="s">
-        <v>211</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
@@ -9312,12 +9336,12 @@
         <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>67</v>
@@ -9329,12 +9353,12 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
@@ -9346,12 +9370,12 @@
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
@@ -9363,12 +9387,12 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
         <v>67</v>
@@ -9380,15 +9404,15 @@
         <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -9397,15 +9421,15 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -9414,15 +9438,15 @@
         <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -9431,15 +9455,15 @@
         <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
@@ -9448,32 +9472,32 @@
         <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -9482,12 +9506,12 @@
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B85" t="s">
         <v>67</v>
@@ -9499,12 +9523,12 @@
         <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
         <v>67</v>
@@ -9516,12 +9540,12 @@
         <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
         <v>67</v>
@@ -9533,12 +9557,12 @@
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
         <v>67</v>
@@ -9550,12 +9574,12 @@
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
         <v>67</v>
@@ -9567,12 +9591,12 @@
         <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
@@ -9584,12 +9608,12 @@
         <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -9601,12 +9625,12 @@
         <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
         <v>67</v>
@@ -9618,12 +9642,12 @@
         <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
@@ -9635,12 +9659,12 @@
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
@@ -9652,12 +9676,12 @@
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
         <v>67</v>
@@ -9669,12 +9693,12 @@
         <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
         <v>67</v>
@@ -9686,15 +9710,15 @@
         <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
@@ -9703,15 +9727,15 @@
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
@@ -9720,15 +9744,15 @@
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -9737,15 +9761,15 @@
         <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -9754,32 +9778,32 @@
         <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
@@ -9788,12 +9812,12 @@
         <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
         <v>67</v>
@@ -9805,12 +9829,12 @@
         <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
         <v>67</v>
@@ -9822,12 +9846,12 @@
         <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
         <v>67</v>
@@ -9839,12 +9863,12 @@
         <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B106" t="s">
         <v>67</v>
@@ -9856,12 +9880,12 @@
         <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
         <v>67</v>
@@ -9873,12 +9897,12 @@
         <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B108" t="s">
         <v>67</v>
@@ -9890,12 +9914,12 @@
         <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B109" t="s">
         <v>67</v>
@@ -9907,12 +9931,12 @@
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B110" t="s">
         <v>67</v>
@@ -9924,12 +9948,12 @@
         <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
         <v>67</v>
@@ -9941,12 +9965,12 @@
         <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B112" t="s">
         <v>67</v>
@@ -9958,12 +9982,12 @@
         <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
         <v>67</v>
@@ -9975,12 +9999,12 @@
         <v>80</v>
       </c>
       <c r="E113" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
         <v>67</v>
@@ -9992,11 +10016,317 @@
         <v>28</v>
       </c>
       <c r="E114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>77</v>
+      </c>
+      <c r="B117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>80</v>
+      </c>
+      <c r="E119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
         <v>173</v>
       </c>
     </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>80</v>
+      </c>
+      <c r="E131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F114"/>
+  <autoFilter ref="A1:F126"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/直播源汇总文档/其他文档/肥羊百视通.xlsx
+++ b/直播源汇总文档/其他文档/肥羊百视通.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="256">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -834,6 +834,13 @@
   <si>
     <t>/bst/ssty@4000000.m3u8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGTN英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bst/ottcctvnews@1300000.m3u8</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
@@ -3881,6 +3888,126 @@
       </c>
       <c r="E157" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>254</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" t="s">
+        <v>255</v>
+      </c>
+      <c r="F158" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>255</v>
+      </c>
+      <c r="F159" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>254</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" t="s">
+        <v>255</v>
+      </c>
+      <c r="F160" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>254</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" t="s">
+        <v>255</v>
+      </c>
+      <c r="F161" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>254</v>
+      </c>
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" t="s">
+        <v>255</v>
+      </c>
+      <c r="F162" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>254</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>255</v>
+      </c>
+      <c r="F163" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
